--- a/products_codes.xlsx
+++ b/products_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FINISH\PRIMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED38ADD1-56AD-4FDA-ADEF-E3A5BEFF2816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435DB3B3-F0AE-40FF-A262-E89B6852516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2803,7 +2803,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2818,9 +2818,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -3162,7 +3159,7 @@
   <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3181,7 +3178,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3189,7 +3186,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>291</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3197,7 +3194,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3205,7 +3202,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3213,7 +3210,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3221,7 +3218,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>555</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3229,7 +3226,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>298</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3237,7 +3234,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3245,7 +3242,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>616</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3253,7 +3250,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>595</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3261,7 +3258,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>304</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3269,7 +3266,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>310</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3277,7 +3274,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>590</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3285,7 +3282,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>308</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3293,7 +3290,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>666</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3301,7 +3298,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>614</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3309,7 +3306,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>312</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3317,7 +3314,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>777</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3325,7 +3322,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>888</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3333,7 +3330,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3341,7 +3338,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3349,7 +3346,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>281</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3357,7 +3354,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3365,7 +3362,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>322</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3373,7 +3370,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>320</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3381,7 +3378,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>318</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3389,7 +3386,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>324</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3397,7 +3394,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>326</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3405,7 +3402,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>327</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3413,7 +3410,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3421,7 +3418,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>287</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3429,7 +3426,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>328</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3437,7 +3434,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>330</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3445,7 +3442,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>332</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3453,7 +3450,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3461,7 +3458,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>334</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3469,7 +3466,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>336</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3477,7 +3474,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>340</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3485,7 +3482,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3493,7 +3490,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>344</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -3501,7 +3498,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>346</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3509,7 +3506,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>348</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3517,7 +3514,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>610</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3525,7 +3522,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>999</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3533,7 +3530,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>352</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3541,7 +3538,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3549,7 +3546,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>338</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3557,7 +3554,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>401</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -3565,7 +3562,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3573,7 +3570,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>355</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3581,7 +3578,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>357</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3589,7 +3586,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>359</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3597,7 +3594,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3605,7 +3602,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>363</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3613,7 +3610,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>365</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3621,7 +3618,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>367</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -3629,7 +3626,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>643</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3637,7 +3634,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>369</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3645,7 +3642,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>371</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3653,7 +3650,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>373</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3661,7 +3658,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>597</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3669,7 +3666,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>375</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3677,7 +3674,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>377</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3685,7 +3682,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>101010</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3693,7 +3690,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3701,7 +3698,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="5" t="s">
         <v>378</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3709,7 +3706,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3717,7 +3714,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3725,7 +3722,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="5" t="s">
         <v>644</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3733,7 +3730,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>384</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3741,7 +3738,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="5" t="s">
         <v>645</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3749,7 +3746,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3757,7 +3754,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -3765,7 +3762,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3773,7 +3770,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="5" t="s">
         <v>394</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3781,7 +3778,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3789,7 +3786,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="5" t="s">
         <v>646</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3797,7 +3794,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3805,7 +3802,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="5" t="s">
         <v>405</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3813,7 +3810,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
         <v>620</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3821,7 +3818,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="5" t="s">
         <v>407</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3829,7 +3826,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
         <v>580</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3837,7 +3834,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="5" t="s">
         <v>600</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -3845,7 +3842,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>121212</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3853,7 +3850,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
         <v>606</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -3861,7 +3858,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>602</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -3869,7 +3866,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="5" t="s">
         <v>604</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3877,7 +3874,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>592</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -3885,7 +3882,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="5" t="s">
         <v>566</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -3893,7 +3890,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
         <v>523</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3901,7 +3898,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="5" t="s">
         <v>656</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -3909,7 +3906,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
         <v>516</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -3917,7 +3914,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="5" t="s">
         <v>552</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -3925,7 +3922,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -3933,7 +3930,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="5" t="s">
         <v>554</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -3941,7 +3938,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -3949,7 +3946,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="5" t="s">
         <v>556</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -3957,7 +3954,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
         <v>527</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -3965,7 +3962,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="5" t="s">
         <v>518</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -3973,7 +3970,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
         <v>533</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -3981,7 +3978,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="5" t="s">
         <v>529</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -3989,7 +3986,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>544</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -3997,7 +3994,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -4005,7 +4002,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -4013,7 +4010,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -4021,7 +4018,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>525</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -4029,7 +4026,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
+      <c r="A108" s="5">
         <v>131313</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -4037,7 +4034,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>560</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -4045,7 +4042,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
+      <c r="A110" s="5">
         <v>141414</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -4053,7 +4050,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
         <v>531</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -4061,7 +4058,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B112" s="5" t="s">
@@ -4069,7 +4066,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="5" t="s">
         <v>564</v>
       </c>
       <c r="B113" s="5" t="s">
@@ -4077,7 +4074,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="5" t="s">
         <v>612</v>
       </c>
       <c r="B114" s="5" t="s">
@@ -4085,7 +4082,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="5" t="s">
         <v>558</v>
       </c>
       <c r="B115" s="5" t="s">
@@ -4093,7 +4090,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="5" t="s">
         <v>588</v>
       </c>
       <c r="B116" s="5" t="s">
@@ -4101,7 +4098,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
         <v>576</v>
       </c>
       <c r="B117" s="5" t="s">
@@ -4109,7 +4106,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="5" t="s">
         <v>578</v>
       </c>
       <c r="B118" s="5" t="s">
@@ -4117,7 +4114,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
         <v>586</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -4125,7 +4122,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="5" t="s">
         <v>584</v>
       </c>
       <c r="B120" s="5" t="s">
@@ -4133,7 +4130,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
         <v>609</v>
       </c>
       <c r="B121" s="5" t="s">
@@ -4141,7 +4138,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="5" t="s">
         <v>514</v>
       </c>
       <c r="B122" s="5" t="s">
@@ -4149,7 +4146,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
         <v>510</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -4157,7 +4154,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="5" t="s">
         <v>512</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4165,7 +4162,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
         <v>540</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -4173,7 +4170,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="5" t="s">
         <v>617</v>
       </c>
       <c r="B126" s="5" t="s">
@@ -4181,7 +4178,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
         <v>542</v>
       </c>
       <c r="B127" s="5" t="s">
@@ -4189,7 +4186,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B128" s="5" t="s">
@@ -4197,7 +4194,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B129" s="5" t="s">
@@ -4205,7 +4202,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B130" s="5" t="s">
@@ -4213,7 +4210,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B131" s="5" t="s">
@@ -4221,7 +4218,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="5" t="s">
         <v>455</v>
       </c>
       <c r="B132" s="5" t="s">
@@ -4229,7 +4226,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -4237,7 +4234,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="5" t="s">
         <v>568</v>
       </c>
       <c r="B134" s="5" t="s">
@@ -4245,7 +4242,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="5" t="s">
         <v>572</v>
       </c>
       <c r="B135" s="5" t="s">
@@ -4253,7 +4250,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="5" t="s">
         <v>574</v>
       </c>
       <c r="B136" s="5" t="s">
@@ -4261,7 +4258,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="5" t="s">
         <v>463</v>
       </c>
       <c r="B137" s="5" t="s">
@@ -4269,7 +4266,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="5" t="s">
         <v>570</v>
       </c>
       <c r="B138" s="5" t="s">
@@ -4277,7 +4274,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="5" t="s">
         <v>615</v>
       </c>
       <c r="B139" s="5" t="s">
@@ -4285,7 +4282,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="5" t="s">
         <v>480</v>
       </c>
       <c r="B140" s="5" t="s">
@@ -4293,7 +4290,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
         <v>482</v>
       </c>
       <c r="B141" s="5" t="s">
@@ -4301,7 +4298,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="5" t="s">
         <v>484</v>
       </c>
       <c r="B142" s="5" t="s">
@@ -4309,7 +4306,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="5" t="s">
         <v>465</v>
       </c>
       <c r="B143" s="5" t="s">
@@ -4317,7 +4314,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B144" s="5" t="s">
@@ -4325,7 +4322,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B145" s="5" t="s">
@@ -4333,7 +4330,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B146" s="5" t="s">
@@ -4341,7 +4338,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="5" t="s">
         <v>594</v>
       </c>
       <c r="B147" s="5" t="s">
@@ -4349,7 +4346,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="5" t="s">
         <v>608</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -4357,7 +4354,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B149" s="5" t="s">
@@ -4365,7 +4362,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="5" t="s">
         <v>665</v>
       </c>
       <c r="B150" s="5" t="s">
@@ -4373,7 +4370,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="5" t="s">
         <v>473</v>
       </c>
       <c r="B151" s="5" t="s">
@@ -4381,7 +4378,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="5" t="s">
         <v>475</v>
       </c>
       <c r="B152" s="5" t="s">
@@ -4389,7 +4386,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="5" t="s">
         <v>477</v>
       </c>
       <c r="B153" s="5" t="s">
@@ -4397,7 +4394,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="5" t="s">
         <v>479</v>
       </c>
       <c r="B154" s="5" t="s">
@@ -4405,7 +4402,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="5" t="s">
         <v>492</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -4413,7 +4410,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="5" t="s">
         <v>490</v>
       </c>
       <c r="B156" s="5" t="s">
@@ -4421,7 +4418,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="5" t="s">
         <v>486</v>
       </c>
       <c r="B157" s="5" t="s">
@@ -4429,7 +4426,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="5" t="s">
         <v>488</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -4437,7 +4434,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="5" t="s">
         <v>504</v>
       </c>
       <c r="B159" s="5" t="s">
@@ -4445,7 +4442,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="5" t="s">
         <v>502</v>
       </c>
       <c r="B160" s="5" t="s">
@@ -4453,7 +4450,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="5" t="s">
         <v>508</v>
       </c>
       <c r="B161" s="5" t="s">
@@ -4461,7 +4458,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="5" t="s">
         <v>506</v>
       </c>
       <c r="B162" s="5" t="s">
@@ -4469,7 +4466,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B163" s="5" t="s">
@@ -4477,7 +4474,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="5" t="s">
         <v>498</v>
       </c>
       <c r="B164" s="5" t="s">
@@ -4485,7 +4482,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="5" t="s">
         <v>496</v>
       </c>
       <c r="B165" s="5" t="s">
@@ -4493,7 +4490,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="5" t="s">
         <v>500</v>
       </c>
       <c r="B166" s="5" t="s">
@@ -4501,7 +4498,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
         <v>666</v>
       </c>
       <c r="B167" s="5" t="s">
@@ -4509,7 +4506,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B168" s="5" t="s">
@@ -4517,7 +4514,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B169" s="5" t="s">
@@ -4525,7 +4522,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="5" t="s">
         <v>249</v>
       </c>
       <c r="B170" s="5" t="s">
@@ -4533,7 +4530,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="5" t="s">
         <v>251</v>
       </c>
       <c r="B171" s="5" t="s">
@@ -4541,7 +4538,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="5" t="s">
         <v>253</v>
       </c>
       <c r="B172" s="5" t="s">
@@ -4549,7 +4546,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
         <v>667</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -4557,7 +4554,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B174" s="5" t="s">
@@ -4565,7 +4562,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -4573,7 +4570,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="5" t="s">
         <v>255</v>
       </c>
       <c r="B176" s="5" t="s">
@@ -4581,7 +4578,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -4589,7 +4586,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B178" s="5" t="s">
@@ -4597,7 +4594,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="5" t="s">
         <v>668</v>
       </c>
       <c r="B179" s="5" t="s">
@@ -4605,7 +4602,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B180" s="5" t="s">
@@ -4613,7 +4610,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="5" t="s">
         <v>267</v>
       </c>
       <c r="B181" s="5" t="s">
@@ -4621,7 +4618,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="5" t="s">
         <v>269</v>
       </c>
       <c r="B182" s="5" t="s">
@@ -4629,7 +4626,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B183" s="5" t="s">
@@ -4637,7 +4634,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="5" t="s">
         <v>273</v>
       </c>
       <c r="B184" s="5" t="s">
@@ -4645,7 +4642,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="5" t="s">
         <v>275</v>
       </c>
       <c r="B185" s="5" t="s">
@@ -4653,7 +4650,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B186" s="5" t="s">
@@ -4661,7 +4658,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="5" t="s">
         <v>279</v>
       </c>
       <c r="B187" s="5" t="s">
@@ -4669,7 +4666,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="5" t="s">
         <v>669</v>
       </c>
       <c r="B188" s="5" t="s">
@@ -4677,7 +4674,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B189" s="5" t="s">
@@ -4685,7 +4682,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="5" t="s">
         <v>415</v>
       </c>
       <c r="B190" s="5" t="s">
@@ -4693,7 +4690,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="5" t="s">
         <v>521</v>
       </c>
       <c r="B191" s="5" t="s">
@@ -4701,7 +4698,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="5" t="s">
         <v>409</v>
       </c>
       <c r="B192" s="5" t="s">
@@ -4709,7 +4706,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="5" t="s">
         <v>411</v>
       </c>
       <c r="B193" s="5" t="s">
@@ -4717,7 +4714,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="5" t="s">
         <v>413</v>
       </c>
       <c r="B194" s="5" t="s">
@@ -4725,7 +4722,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="5" t="s">
         <v>562</v>
       </c>
       <c r="B195" s="5" t="s">
@@ -4733,7 +4730,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="5" t="s">
         <v>417</v>
       </c>
       <c r="B196" s="5" t="s">
@@ -4741,7 +4738,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="5" t="s">
         <v>419</v>
       </c>
       <c r="B197" s="5" t="s">
@@ -4749,7 +4746,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B198" s="5" t="s">
@@ -4757,7 +4754,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="5" t="s">
         <v>423</v>
       </c>
       <c r="B199" s="5" t="s">
@@ -4765,7 +4762,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B200" s="5" t="s">
@@ -4773,7 +4770,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="5" t="s">
         <v>427</v>
       </c>
       <c r="B201" s="5" t="s">
@@ -4781,7 +4778,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="5" t="s">
         <v>429</v>
       </c>
       <c r="B202" s="5" t="s">
@@ -4789,7 +4786,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B203" s="5" t="s">
@@ -4797,7 +4794,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="5" t="s">
         <v>433</v>
       </c>
       <c r="B204" s="5" t="s">
@@ -4805,7 +4802,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="5" t="s">
         <v>435</v>
       </c>
       <c r="B205" s="5" t="s">
@@ -4813,7 +4810,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="5" t="s">
         <v>437</v>
       </c>
       <c r="B206" s="5" t="s">
@@ -4821,7 +4818,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="5" t="s">
         <v>439</v>
       </c>
       <c r="B207" s="5" t="s">
@@ -4829,7 +4826,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="5" t="s">
         <v>441</v>
       </c>
       <c r="B208" s="5" t="s">
@@ -4837,7 +4834,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="5" t="s">
         <v>443</v>
       </c>
       <c r="B209" s="5" t="s">
@@ -4845,7 +4842,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="5" t="s">
         <v>445</v>
       </c>
       <c r="B210" s="5" t="s">
@@ -4853,7 +4850,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B211" s="5" t="s">
@@ -4861,7 +4858,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="5" t="s">
         <v>449</v>
       </c>
       <c r="B212" s="5" t="s">
@@ -4869,7 +4866,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="5" t="s">
         <v>582</v>
       </c>
       <c r="B213" s="5" t="s">
@@ -4877,7 +4874,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="5" t="s">
         <v>396</v>
       </c>
       <c r="B214" s="5" t="s">
@@ -4885,7 +4882,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
         <v>670</v>
       </c>
       <c r="B215" s="5" t="s">
@@ -4893,7 +4890,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="5" t="s">
         <v>671</v>
       </c>
       <c r="B216" s="5" t="s">
@@ -4901,7 +4898,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="5" t="s">
         <v>672</v>
       </c>
       <c r="B217" s="5" t="s">
@@ -4909,7 +4906,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B218" s="5" t="s">
@@ -4917,7 +4914,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="5" t="s">
         <v>397</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -4925,7 +4922,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="5" t="s">
         <v>398</v>
       </c>
       <c r="B220" s="5" t="s">
@@ -4933,7 +4930,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="5" t="s">
         <v>399</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -4941,7 +4938,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="5" t="s">
         <v>400</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -4949,7 +4946,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="5" t="s">
         <v>673</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -4957,7 +4954,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="5" t="s">
         <v>674</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -4965,7 +4962,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="5" t="s">
         <v>675</v>
       </c>
       <c r="B225" s="5" t="s">
@@ -4973,7 +4970,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="5" t="s">
         <v>676</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -4981,7 +4978,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="5" t="s">
         <v>677</v>
       </c>
       <c r="B227" s="5" t="s">
@@ -4989,7 +4986,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="5" t="s">
         <v>599</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -4997,7 +4994,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="7">
+      <c r="A229" s="5">
         <v>654321789</v>
       </c>
       <c r="B229" s="5" t="s">
@@ -5005,7 +5002,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B230" s="5" t="s">
@@ -5013,7 +5010,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B231" s="5" t="s">
@@ -5021,7 +5018,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B232" s="5" t="s">
@@ -5029,7 +5026,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B233" s="5" t="s">
@@ -5037,7 +5034,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B234" s="5" t="s">
@@ -5045,7 +5042,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B235" s="5" t="s">
@@ -5053,7 +5050,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B236" s="5" t="s">
@@ -5061,7 +5058,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="5" t="s">
         <v>808</v>
       </c>
       <c r="B237" s="5" t="s">
@@ -5069,7 +5066,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B238" s="5" t="s">
@@ -5077,7 +5074,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B239" s="5" t="s">
@@ -5085,7 +5082,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B240" s="5" t="s">
@@ -5093,7 +5090,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B241" s="5" t="s">
@@ -5101,7 +5098,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B242" s="5" t="s">
@@ -5109,7 +5106,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B243" s="5" t="s">
@@ -5117,7 +5114,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B244" s="5" t="s">
@@ -5125,7 +5122,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B245" s="5" t="s">
@@ -5133,7 +5130,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B246" s="5" t="s">
@@ -5141,7 +5138,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B247" s="5" t="s">
@@ -5149,7 +5146,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="5" t="s">
         <v>779</v>
       </c>
       <c r="B248" s="5" t="s">
@@ -5157,7 +5154,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -5165,7 +5162,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="5" t="s">
         <v>780</v>
       </c>
       <c r="B250" s="5" t="s">
@@ -5173,7 +5170,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -5181,7 +5178,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -5189,7 +5186,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B253" s="5" t="s">
@@ -5197,7 +5194,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B254" s="5" t="s">
@@ -5205,7 +5202,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B255" s="5" t="s">
@@ -5213,7 +5210,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="5" t="s">
         <v>781</v>
       </c>
       <c r="B256" s="5" t="s">
@@ -5221,7 +5218,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B257" s="5" t="s">
@@ -5229,7 +5226,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B258" s="5" t="s">
@@ -5237,7 +5234,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B259" s="5" t="s">
@@ -5245,7 +5242,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B260" s="5" t="s">
@@ -5253,7 +5250,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B261" s="5" t="s">
@@ -5261,7 +5258,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B262" s="5" t="s">
@@ -5269,7 +5266,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B263" s="5" t="s">
@@ -5277,7 +5274,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B264" s="5" t="s">
@@ -5285,7 +5282,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B265" s="5" t="s">
@@ -5293,7 +5290,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B266" s="5" t="s">
@@ -5301,7 +5298,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B267" s="5" t="s">
@@ -5309,7 +5306,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B268" s="5" t="s">
@@ -5317,7 +5314,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B269" s="5" t="s">
@@ -5325,7 +5322,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B270" s="5" t="s">
@@ -5333,7 +5330,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B271" s="5" t="s">
@@ -5341,7 +5338,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B272" s="5" t="s">
@@ -5349,7 +5346,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B273" s="5" t="s">
@@ -5357,7 +5354,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B274" s="5" t="s">
@@ -5365,7 +5362,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="5" t="s">
         <v>782</v>
       </c>
       <c r="B275" s="5" t="s">
@@ -5373,7 +5370,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B276" s="5" t="s">
@@ -5381,7 +5378,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B277" s="5" t="s">
@@ -5389,7 +5386,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B278" s="5" t="s">
@@ -5397,7 +5394,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="5" t="s">
         <v>783</v>
       </c>
       <c r="B279" s="5" t="s">
@@ -5405,7 +5402,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B280" s="5" t="s">
@@ -5413,7 +5410,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B281" s="5" t="s">
@@ -5421,7 +5418,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B282" s="5" t="s">
@@ -5429,7 +5426,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B283" s="5" t="s">
@@ -5437,7 +5434,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B284" s="5" t="s">
@@ -5445,7 +5442,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B285" s="5" t="s">
@@ -5453,7 +5450,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B286" s="5" t="s">
@@ -5461,7 +5458,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B287" s="5" t="s">
@@ -5469,7 +5466,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B288" s="5" t="s">
@@ -5477,7 +5474,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="3" t="s">
+      <c r="A289" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B289" s="5" t="s">
@@ -5485,7 +5482,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B290" s="5" t="s">
@@ -5493,7 +5490,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B291" s="5" t="s">
@@ -5501,7 +5498,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B292" s="5" t="s">
@@ -5509,7 +5506,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B293" s="5" t="s">
@@ -5517,7 +5514,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B294" s="5" t="s">
@@ -5525,7 +5522,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B295" s="5" t="s">
@@ -5533,7 +5530,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B296" s="5" t="s">
@@ -5541,7 +5538,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B297" s="5" t="s">
@@ -5549,7 +5546,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B298" s="5" t="s">
@@ -5557,7 +5554,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B299" s="5" t="s">
@@ -5565,7 +5562,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B300" s="5" t="s">
@@ -5573,7 +5570,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B301" s="5" t="s">
@@ -5581,7 +5578,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="5" t="s">
         <v>784</v>
       </c>
       <c r="B302" s="5" t="s">
@@ -5589,7 +5586,7 @@
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="5" t="s">
         <v>785</v>
       </c>
       <c r="B303" s="5" t="s">
@@ -5597,7 +5594,7 @@
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B304" s="5" t="s">
@@ -5605,7 +5602,7 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B305" s="5" t="s">
@@ -5613,7 +5610,7 @@
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B306" s="5" t="s">
@@ -5621,7 +5618,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B307" s="5" t="s">
@@ -5629,7 +5626,7 @@
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="5" t="s">
         <v>786</v>
       </c>
       <c r="B308" s="5" t="s">
@@ -5637,7 +5634,7 @@
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B309" s="5" t="s">
@@ -5645,7 +5642,7 @@
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B310" s="5" t="s">
@@ -5653,7 +5650,7 @@
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B311" s="5" t="s">
@@ -5661,7 +5658,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B312" s="5" t="s">
@@ -5669,7 +5666,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="5" t="s">
         <v>787</v>
       </c>
       <c r="B313" s="5" t="s">
@@ -5677,7 +5674,7 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B314" s="5" t="s">
@@ -5685,7 +5682,7 @@
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B315" s="5" t="s">
@@ -5693,7 +5690,7 @@
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B316" s="5" t="s">
@@ -5701,7 +5698,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B317" s="5" t="s">
@@ -5709,7 +5706,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B318" s="5" t="s">
@@ -5717,7 +5714,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B319" s="5" t="s">
@@ -5725,7 +5722,7 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B320" s="5" t="s">
@@ -5733,7 +5730,7 @@
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B321" s="5" t="s">
@@ -5741,7 +5738,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B322" s="5" t="s">
@@ -5749,7 +5746,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B323" s="5" t="s">
@@ -5757,7 +5754,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="5" t="s">
         <v>788</v>
       </c>
       <c r="B324" s="5" t="s">
@@ -5765,7 +5762,7 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B325" s="5" t="s">
@@ -5773,7 +5770,7 @@
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B326" s="5" t="s">
@@ -5781,7 +5778,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B327" s="5" t="s">
@@ -5789,7 +5786,7 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="5" t="s">
         <v>789</v>
       </c>
       <c r="B328" s="5" t="s">
@@ -5797,7 +5794,7 @@
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="5" t="s">
         <v>790</v>
       </c>
       <c r="B329" s="5" t="s">
@@ -5805,7 +5802,7 @@
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B330" s="5" t="s">
@@ -5813,7 +5810,7 @@
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="5" t="s">
         <v>241</v>
       </c>
       <c r="B331" s="5" t="s">
@@ -5821,7 +5818,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B332" s="5" t="s">
@@ -5829,7 +5826,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B333" s="5" t="s">
@@ -5837,7 +5834,7 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B334" s="5" t="s">
@@ -5845,7 +5842,7 @@
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B335" s="5" t="s">
@@ -5853,7 +5850,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B336" s="5" t="s">
@@ -5861,7 +5858,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B337" s="5" t="s">
@@ -5869,7 +5866,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B338" s="5" t="s">
@@ -5877,7 +5874,7 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B339" s="5" t="s">
@@ -5885,7 +5882,7 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B340" s="5" t="s">
@@ -5893,7 +5890,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B341" s="5" t="s">
@@ -5901,7 +5898,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="5" t="s">
         <v>791</v>
       </c>
       <c r="B342" s="5" t="s">
@@ -5909,7 +5906,7 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B343" s="5" t="s">
@@ -5917,7 +5914,7 @@
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B344" s="5" t="s">
@@ -5925,7 +5922,7 @@
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B345" s="5" t="s">
@@ -5933,7 +5930,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B346" s="5" t="s">
@@ -5941,7 +5938,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B347" s="5" t="s">
@@ -5949,7 +5946,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B348" s="5" t="s">
@@ -5957,7 +5954,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B349" s="5" t="s">
@@ -5965,7 +5962,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B350" s="5" t="s">
@@ -5973,7 +5970,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B351" s="5" t="s">
@@ -5981,7 +5978,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="5" t="s">
         <v>828</v>
       </c>
       <c r="B352" s="5" t="s">
@@ -5989,7 +5986,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B353" s="5" t="s">
@@ -5997,7 +5994,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B354" s="5" t="s">
@@ -6005,7 +6002,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="5" t="s">
         <v>792</v>
       </c>
       <c r="B355" s="5" t="s">
@@ -6013,7 +6010,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B356" s="5" t="s">
@@ -6021,7 +6018,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B357" s="5" t="s">
@@ -6029,7 +6026,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B358" s="5" t="s">
@@ -6037,7 +6034,7 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B359" s="5" t="s">
@@ -6045,7 +6042,7 @@
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="5" t="s">
         <v>793</v>
       </c>
       <c r="B360" s="5" t="s">
@@ -6053,7 +6050,7 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B361" s="5" t="s">
@@ -6061,7 +6058,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B362" s="5" t="s">
@@ -6069,7 +6066,7 @@
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B363" s="5" t="s">
@@ -6077,7 +6074,7 @@
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B364" s="5" t="s">
@@ -6085,7 +6082,7 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B365" s="5" t="s">
@@ -6093,7 +6090,7 @@
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="5" t="s">
         <v>794</v>
       </c>
       <c r="B366" s="5" t="s">
@@ -6101,7 +6098,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B367" s="5" t="s">
@@ -6109,7 +6106,7 @@
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="5" t="s">
         <v>795</v>
       </c>
       <c r="B368" s="5" t="s">
@@ -6117,7 +6114,7 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B369" s="5" t="s">
@@ -6125,7 +6122,7 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B370" s="5" t="s">
@@ -6133,7 +6130,7 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="5" t="s">
         <v>809</v>
       </c>
       <c r="B371" s="5" t="s">
@@ -6141,7 +6138,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B372" s="5" t="s">
@@ -6149,7 +6146,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B373" s="5" t="s">
@@ -6157,7 +6154,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B374" s="3" t="s">
@@ -6165,7 +6162,7 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B375" s="3" t="s">
@@ -6173,7 +6170,7 @@
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B376" s="3" t="s">
@@ -6181,7 +6178,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="5" t="s">
         <v>796</v>
       </c>
       <c r="B377" s="3" t="s">
@@ -6189,7 +6186,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B378" s="3" t="s">
@@ -6197,7 +6194,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B379" s="3" t="s">
@@ -6205,7 +6202,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B380" s="3" t="s">
@@ -6213,7 +6210,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B381" s="3" t="s">
@@ -6221,7 +6218,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="5" t="s">
         <v>797</v>
       </c>
       <c r="B382" s="3" t="s">
@@ -6229,7 +6226,7 @@
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B383" s="3" t="s">
@@ -6237,7 +6234,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B384" s="3" t="s">
@@ -6245,7 +6242,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="5" t="s">
         <v>798</v>
       </c>
       <c r="B385" s="3" t="s">
@@ -6253,7 +6250,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="5" t="s">
         <v>799</v>
       </c>
       <c r="B386" s="3" t="s">
@@ -6261,7 +6258,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="5" t="s">
         <v>800</v>
       </c>
       <c r="B387" s="3" t="s">
@@ -6269,7 +6266,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="5" t="s">
         <v>801</v>
       </c>
       <c r="B388" s="3" t="s">
@@ -6277,7 +6274,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="3" t="s">
+      <c r="A389" s="5" t="s">
         <v>623</v>
       </c>
       <c r="B389" s="3" t="s">
@@ -6285,7 +6282,7 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="5" t="s">
         <v>802</v>
       </c>
       <c r="B390" s="3" t="s">
@@ -6293,7 +6290,7 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="5" t="s">
         <v>803</v>
       </c>
       <c r="B391" s="3" t="s">
@@ -6301,7 +6298,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="5" t="s">
         <v>804</v>
       </c>
       <c r="B392" s="3" t="s">
@@ -6309,7 +6306,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="5" t="s">
         <v>805</v>
       </c>
       <c r="B393" s="3" t="s">
@@ -6317,7 +6314,7 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="5" t="s">
         <v>806</v>
       </c>
       <c r="B394" s="3" t="s">
@@ -6325,7 +6322,7 @@
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B395" s="3" t="s">
@@ -6333,7 +6330,7 @@
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="5" t="s">
         <v>807</v>
       </c>
       <c r="B396" s="3" t="s">
@@ -6341,79 +6338,79 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B397" s="10" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="B398" s="9" t="s">
+      <c r="B398" s="8" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B399" s="7" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="B400" s="9" t="s">
+      <c r="B400" s="8" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="B401" s="9" t="s">
+      <c r="B401" s="8" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="B402" s="9" t="s">
+      <c r="B402" s="8" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A403" s="3" t="s">
+      <c r="A403" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="B403" s="9" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="B404" s="9" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A405" s="3" t="s">
+      <c r="A405" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="B405" s="9" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -6421,7 +6418,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="5" t="s">
         <v>829</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -6429,7 +6426,7 @@
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="5" t="s">
         <v>622</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -6437,7 +6434,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -6445,7 +6442,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="5" t="s">
         <v>830</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -6453,7 +6450,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="5" t="s">
         <v>831</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -6461,7 +6458,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -6469,7 +6466,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="5" t="s">
         <v>832</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -6477,7 +6474,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -6485,7 +6482,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -6493,7 +6490,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -6501,7 +6498,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -6509,7 +6506,7 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="5" t="s">
         <v>833</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -6517,7 +6514,7 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B419" s="2" t="s">
@@ -6525,7 +6522,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="5" t="s">
         <v>834</v>
       </c>
       <c r="B420" s="2" t="s">
@@ -6533,7 +6530,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B421" s="2" t="s">
@@ -6541,7 +6538,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B422" s="2" t="s">
@@ -6549,7 +6546,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="5" t="s">
         <v>835</v>
       </c>
       <c r="B423" s="2" t="s">
@@ -6557,7 +6554,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="5" t="s">
         <v>865</v>
       </c>
       <c r="B424" s="2" t="s">
@@ -6565,7 +6562,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="5" t="s">
         <v>621</v>
       </c>
       <c r="B425" s="2" t="s">
@@ -6573,7 +6570,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="3" t="s">
+      <c r="A426" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B426" s="2" t="s">
@@ -6581,7 +6578,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="3" t="s">
+      <c r="A427" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -6589,7 +6586,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -6597,7 +6594,7 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -6605,7 +6602,7 @@
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="5" t="s">
         <v>863</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -6613,7 +6610,7 @@
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="3" t="s">
+      <c r="A431" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -6621,7 +6618,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="5" t="s">
         <v>837</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -6629,7 +6626,7 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="3" t="s">
+      <c r="A433" s="5" t="s">
         <v>838</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -6637,7 +6634,7 @@
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -6645,7 +6642,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="5" t="s">
         <v>839</v>
       </c>
       <c r="B435" s="2" t="s">
@@ -6653,7 +6650,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="5" t="s">
         <v>836</v>
       </c>
       <c r="B436" s="2" t="s">
@@ -6661,7 +6658,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B437" s="2" t="s">
@@ -6669,7 +6666,7 @@
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="5" t="s">
         <v>840</v>
       </c>
       <c r="B438" s="2" t="s">
